--- a/data/trans_dic/P07_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P07_R2-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.9725558023793304</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.9639713789926365</v>
+        <v>0.9639713789926363</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.9330633047303134</v>
@@ -697,7 +697,7 @@
         <v>0.9754669787835866</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.9491587531069494</v>
+        <v>0.9491587531069492</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.9523268938766986</v>
+        <v>0.9542187445872439</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9511242189162779</v>
+        <v>0.949030521269253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9531347600476515</v>
+        <v>0.9540009235055605</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9137915935515775</v>
+        <v>0.9215076206497064</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9040000379058728</v>
+        <v>0.9070641881508863</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.9148067392979331</v>
+        <v>0.9121838198935202</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.9613293299465502</v>
+        <v>0.962305180687714</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8810856512656496</v>
+        <v>0.8839258440392219</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.9377277741839769</v>
+        <v>0.9378694255778744</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.9391225033244066</v>
+        <v>0.9390769645150637</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.9627024415485529</v>
+        <v>0.9627914253654167</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.9212543881560868</v>
+        <v>0.918187163543341</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9838416109381481</v>
+        <v>0.9840481915981731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9814643937192622</v>
+        <v>0.9823337826986096</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9856441568704307</v>
+        <v>0.9859312708830643</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9844740796376635</v>
+        <v>0.9869706675522372</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9523163849873013</v>
+        <v>0.9525036674562017</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.9617622347003202</v>
+        <v>0.9597269655617804</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.989006312231951</v>
+        <v>0.9903090125293743</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9665069444707328</v>
+        <v>0.9643642097031376</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9644302394476579</v>
+        <v>0.9643454127409857</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9674380787675201</v>
+        <v>0.9663032583669829</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.9841250267614133</v>
+        <v>0.9838479172273484</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.9703437243979681</v>
+        <v>0.9697558877092493</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.957822356261015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.93548364052994</v>
+        <v>0.9354836405299403</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8798285237732619</v>
@@ -821,7 +821,7 @@
         <v>0.9315741603098096</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9556964225378914</v>
+        <v>0.9556964225378913</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.9212621398562306</v>
@@ -833,7 +833,7 @@
         <v>0.9450047713136392</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.9458465822836672</v>
+        <v>0.9458465822836674</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.9382695885541581</v>
+        <v>0.9397659270903015</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.920229413037409</v>
+        <v>0.9175335742398453</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9402691287098031</v>
+        <v>0.9359773711031325</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8991083998228157</v>
+        <v>0.8996262358154929</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8525519631314894</v>
+        <v>0.8547034328948774</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8789246565579588</v>
+        <v>0.8786449170480116</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.9079104738262533</v>
+        <v>0.9086952192588704</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9352187851133837</v>
+        <v>0.933423732555046</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.9054216553602059</v>
+        <v>0.9053661709353654</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.9080790185303879</v>
+        <v>0.9071188981453072</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.9307369365808016</v>
+        <v>0.9309126381063898</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.9269108653196482</v>
+        <v>0.9274017186012622</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.969693325620433</v>
+        <v>0.9696550908703625</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9558771748977423</v>
+        <v>0.9576140969443241</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9737779381000832</v>
+        <v>0.9715850877661493</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9588304640533865</v>
+        <v>0.9598559681407524</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9041891509318126</v>
+        <v>0.9025497005087433</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.926853213433205</v>
+        <v>0.9276534478357218</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9505116240579188</v>
+        <v>0.9504503864267279</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9719300958833755</v>
+        <v>0.971043814150248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9350834448544392</v>
+        <v>0.9350861203692057</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.9380102853067559</v>
+        <v>0.9382277715343715</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9567098002791227</v>
+        <v>0.9575961403606083</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.9604497772529481</v>
+        <v>0.9597893284095045</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8786557590206289</v>
+        <v>0.8786960290519612</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8820169181297937</v>
+        <v>0.883867036106101</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.911509995013101</v>
+        <v>0.9097321626666703</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9063052522498484</v>
+        <v>0.9065438639236554</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7947786123784012</v>
+        <v>0.7956864591624032</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.8002614891145612</v>
+        <v>0.8017475264657933</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8717586600245483</v>
+        <v>0.8720996511325825</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8728912562259964</v>
+        <v>0.8722104830641485</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.8429063848076241</v>
+        <v>0.8423487962339468</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.849362363286996</v>
+        <v>0.8483675313482644</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.8975485878622214</v>
+        <v>0.8970771513608004</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.897917214286036</v>
+        <v>0.8970702193700605</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9262702405110999</v>
+        <v>0.9268887569289008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9296889093728674</v>
+        <v>0.9286903520383842</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9510224373552666</v>
+        <v>0.9497386797954848</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9492286127368598</v>
+        <v>0.9474042650982801</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8537217290865848</v>
+        <v>0.8552669308121439</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8569955776988553</v>
+        <v>0.8587503062412597</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9202897721423133</v>
+        <v>0.9186116629264511</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9136388068374101</v>
+        <v>0.914951563465916</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.8816831359665133</v>
+        <v>0.880681726789745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8874623490559476</v>
+        <v>0.8866146473642113</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.9286761884869041</v>
+        <v>0.9288220293788476</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.9266481155356732</v>
+        <v>0.9274082673923006</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.8101656679133337</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.8281872912065115</v>
+        <v>0.8281872912065116</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8351283030244834</v>
+        <v>0.8339453805041955</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8180054105642415</v>
+        <v>0.8201927062126388</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7843270382888653</v>
+        <v>0.7835389484326206</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8106419814752412</v>
+        <v>0.8086281695840867</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6783014312597436</v>
+        <v>0.6768036601636234</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.7263692783646203</v>
+        <v>0.7211564153434615</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.7650965325141336</v>
+        <v>0.7697614977892994</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7932129678591012</v>
+        <v>0.7944216202390609</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7684824977242741</v>
+        <v>0.766382516797405</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.7840927540889782</v>
+        <v>0.7827561944778634</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.7868456513702685</v>
+        <v>0.7880264604645122</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.8092707145857367</v>
+        <v>0.8108960838361373</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.898179106571528</v>
+        <v>0.8974192059331186</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8796505847696842</v>
+        <v>0.8805687615617899</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8508665021882543</v>
+        <v>0.8495470254426645</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.8697896539269818</v>
+        <v>0.8682424704214572</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.7594338818811216</v>
+        <v>0.758516071684168</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.7951672769815207</v>
+        <v>0.7961897997647921</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8340138142835112</v>
+        <v>0.834112343424367</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8391013360922711</v>
+        <v>0.8377282050370518</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8190526364636028</v>
+        <v>0.817861570950689</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8301133177585864</v>
+        <v>0.8309397386133195</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.8333126238173826</v>
+        <v>0.8331556208204747</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8461255965088351</v>
+        <v>0.8458893362230187</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.6495688105068174</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.6701493777794859</v>
+        <v>0.670149377779486</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.6534264118566661</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6659904217868724</v>
+        <v>0.6660050026646143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7141123790206348</v>
+        <v>0.7111251699056714</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7123450190715065</v>
+        <v>0.7162542847775103</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7003536187418676</v>
+        <v>0.7002326587350792</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.5507147309625033</v>
+        <v>0.5520031555503639</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.5710214054146944</v>
+        <v>0.5769266792374582</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6051740584374332</v>
+        <v>0.6026659951551936</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.6422119970259152</v>
+        <v>0.6426255784273868</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.6198891534995306</v>
+        <v>0.6185440169348322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.653630777949976</v>
+        <v>0.6559088459961896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6728615370038525</v>
+        <v>0.668621472404254</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6786977676475398</v>
+        <v>0.6796920669433084</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7549990196160637</v>
+        <v>0.7547992286593972</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7975342166965153</v>
+        <v>0.7945818076676293</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7934581471674421</v>
+        <v>0.7964457502301475</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7665234310190451</v>
+        <v>0.7690723279110944</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6456326798920096</v>
+        <v>0.6534861584300918</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6685269968375565</v>
+        <v>0.6657310388664383</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.6975513409966732</v>
+        <v>0.6984125881927296</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.6986580172924995</v>
+        <v>0.7009676996465024</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.6859690248473547</v>
+        <v>0.6853854567007357</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.7175539627239705</v>
+        <v>0.7217713743526629</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7342373985073474</v>
+        <v>0.7297738052546784</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.7249411943707762</v>
+        <v>0.7240088988191459</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.6980648374021554</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.7222429164129752</v>
+        <v>0.7222429164129753</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4150966287488788</v>
@@ -1365,7 +1365,7 @@
         <v>0.5346993584914593</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.5904881281649409</v>
+        <v>0.5904881281649407</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.5094497705004846</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.571099292129938</v>
+        <v>0.5661956218413892</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.5701708161517134</v>
+        <v>0.5699924330254421</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6496303011671883</v>
+        <v>0.6432022175005063</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6853564315448372</v>
+        <v>0.6850411820617451</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.3674610789133858</v>
+        <v>0.3629763189163742</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.4706012649366959</v>
+        <v>0.4617521915110896</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4856748599315052</v>
+        <v>0.4831783439884106</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.5598384815821776</v>
+        <v>0.5584843015408796</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4745066882663688</v>
+        <v>0.4705898887304407</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5316959116024162</v>
+        <v>0.5317683865707437</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5751341850507306</v>
+        <v>0.5744703462914208</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.627722009132037</v>
+        <v>0.6298765676070841</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6726284387300847</v>
+        <v>0.6798765111407898</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.686983040596444</v>
+        <v>0.6829637264062174</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7493083524471187</v>
+        <v>0.7455686261676582</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7599539044379626</v>
+        <v>0.7579858173200521</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4693191380328758</v>
+        <v>0.4674630773796195</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5723458199530087</v>
+        <v>0.570811746965587</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5860376528266614</v>
+        <v>0.5906981229455263</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.6260411250973155</v>
+        <v>0.6260449731571769</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5504461894919676</v>
+        <v>0.5449988980889281</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.6086479115834567</v>
+        <v>0.6077018731567645</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6495846371631083</v>
+        <v>0.6484939867605609</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.6777992243821829</v>
+        <v>0.6813812772106135</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0.55104668174</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.5569414863341111</v>
+        <v>0.556941486334111</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.3028478490522248</v>
@@ -1513,7 +1513,7 @@
         <v>0.4397655998353237</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.4601942481918986</v>
+        <v>0.4601942481918985</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3842349410994719</v>
+        <v>0.3857228639204853</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3666959243981913</v>
+        <v>0.3671330607222958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4921461475220776</v>
+        <v>0.4894463880836153</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.5143946929124739</v>
+        <v>0.5098332080083127</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2475929417976551</v>
+        <v>0.2527039373511099</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2791855238940471</v>
+        <v>0.2769752045046291</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3113102839796663</v>
+        <v>0.3191187886644863</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3597383587914938</v>
+        <v>0.3648445749380436</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3208565210341112</v>
+        <v>0.3182080371024247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.3305849982558429</v>
+        <v>0.3289553527040218</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4026435232762659</v>
+        <v>0.3981738560286958</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4338263300830887</v>
+        <v>0.4321187945239661</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5158676301261677</v>
+        <v>0.5187011852372821</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5026521343374781</v>
+        <v>0.4991194129644511</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6101046932822155</v>
+        <v>0.6065702464975444</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.6044557340198167</v>
+        <v>0.6029061265105475</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3603142395468233</v>
+        <v>0.3590457377198648</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3783133978601947</v>
+        <v>0.3755659324517425</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4270697627260067</v>
+        <v>0.4287377684333462</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4277463092549283</v>
+        <v>0.4314765707937682</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4045003432731957</v>
+        <v>0.3969895317110004</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.4065669646651368</v>
+        <v>0.4088355214111869</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4806091942776943</v>
+        <v>0.4815309279632231</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4894123165787309</v>
+        <v>0.4863255863875562</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.8430440069983642</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.8264633583380862</v>
+        <v>0.8264633583380863</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.713626529777061</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.830301165466482</v>
+        <v>0.8306456534827377</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8189759697073598</v>
+        <v>0.8194273746796841</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8301552547304524</v>
+        <v>0.8298351393420164</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.8125562971944268</v>
+        <v>0.8127399023182691</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.6977721520795739</v>
+        <v>0.6981510962277921</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.7167443397931442</v>
+        <v>0.7168365794555097</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.7453926137674952</v>
+        <v>0.7460790691672898</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.7457666481994063</v>
+        <v>0.7453391355879495</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.7674791118559181</v>
+        <v>0.7669534477951858</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.7711726170215271</v>
+        <v>0.7713827966366892</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.7918426367751612</v>
+        <v>0.7918642720074618</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.7827984180046281</v>
+        <v>0.7820677412406597</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8556633537307452</v>
+        <v>0.8553821084969315</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8458678897493173</v>
+        <v>0.8473798052860224</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8547081008483015</v>
+        <v>0.8551686754435422</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8375584996329222</v>
+        <v>0.8394656221820924</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.7302922088040439</v>
+        <v>0.7279545379440623</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.7477302367043016</v>
+        <v>0.7473560243901251</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.7768958040473157</v>
+        <v>0.7762332621067763</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.7682899491312805</v>
+        <v>0.7685804245759688</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.7871556206855586</v>
+        <v>0.7876568710603387</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.7923931753172311</v>
+        <v>0.7919548925252559</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.8109714271108657</v>
+        <v>0.8113732937598066</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7999769403809257</v>
+        <v>0.7990874951854534</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>470510</v>
+        <v>471445</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>431234</v>
+        <v>430285</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>398895</v>
+        <v>399257</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>372638</v>
+        <v>375784</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>422610</v>
+        <v>424043</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>393577</v>
+        <v>392449</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>380451</v>
+        <v>380837</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>319404</v>
+        <v>320434</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>901675</v>
+        <v>901811</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>829831</v>
+        <v>829791</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>783893</v>
+        <v>783965</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>709647</v>
+        <v>707284</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>486081</v>
+        <v>486183</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>444990</v>
+        <v>445384</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>412500</v>
+        <v>412620</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>401462</v>
+        <v>402480</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>445197</v>
+        <v>445285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>413779</v>
+        <v>412903</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>391404</v>
+        <v>391920</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>350370</v>
+        <v>349594</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>927351</v>
+        <v>927269</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>854852</v>
+        <v>853849</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>801337</v>
+        <v>801111</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>747461</v>
+        <v>747008</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>690087</v>
+        <v>691188</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>631091</v>
+        <v>629242</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>555225</v>
+        <v>552691</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>428776</v>
+        <v>429023</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>533266</v>
+        <v>534612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>535514</v>
+        <v>535343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>511648</v>
+        <v>512090</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>469230</v>
+        <v>468329</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1232263</v>
+        <v>1232187</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>1176035</v>
+        <v>1174792</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1074108</v>
+        <v>1074310</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>907096</v>
+        <v>907577</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>713199</v>
+        <v>713171</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>655538</v>
+        <v>656729</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>575012</v>
+        <v>573717</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>457257</v>
+        <v>457746</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>565565</v>
+        <v>564539</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>564716</v>
+        <v>565203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>535655</v>
+        <v>535621</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>487649</v>
+        <v>487205</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1272632</v>
+        <v>1272635</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>1214798</v>
+        <v>1215080</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>1104081</v>
+        <v>1105104</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>939918</v>
+        <v>939272</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>560216</v>
+        <v>560242</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>600574</v>
+        <v>601834</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>609889</v>
+        <v>608699</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>562668</v>
+        <v>562816</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>548194</v>
+        <v>548820</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>566517</v>
+        <v>567569</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>576569</v>
+        <v>576794</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>543424</v>
+        <v>543000</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1118812</v>
+        <v>1118072</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>1179615</v>
+        <v>1178233</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1194173</v>
+        <v>1193546</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1116464</v>
+        <v>1115411</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>590574</v>
+        <v>590969</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>633034</v>
+        <v>632355</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>636326</v>
+        <v>635467</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>589316</v>
+        <v>588184</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>588849</v>
+        <v>589915</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>606680</v>
+        <v>607922</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>608667</v>
+        <v>607557</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>568791</v>
+        <v>569609</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1170282</v>
+        <v>1168953</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>1232529</v>
+        <v>1231352</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>1235588</v>
+        <v>1235782</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1152188</v>
+        <v>1153133</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>433554</v>
+        <v>432940</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>500269</v>
+        <v>501607</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>505160</v>
+        <v>504652</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>567950</v>
+        <v>566539</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>349761</v>
+        <v>348988</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>447588</v>
+        <v>444376</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>496607</v>
+        <v>499634</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>584508</v>
+        <v>585398</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>795217</v>
+        <v>793044</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>962686</v>
+        <v>961045</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>1017506</v>
+        <v>1019032</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>1163330</v>
+        <v>1165666</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>466287</v>
+        <v>465892</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>537970</v>
+        <v>538531</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>548016</v>
+        <v>547166</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>609389</v>
+        <v>608305</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>391596</v>
+        <v>391123</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>489981</v>
+        <v>490611</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>541339</v>
+        <v>541403</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>618322</v>
+        <v>617310</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>847547</v>
+        <v>846314</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>1019189</v>
+        <v>1020204</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>1077594</v>
+        <v>1077391</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>1216309</v>
+        <v>1215969</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>257545</v>
+        <v>257551</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>306661</v>
+        <v>305378</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>339730</v>
+        <v>341595</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>426758</v>
+        <v>426684</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>222481</v>
+        <v>223002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>255703</v>
+        <v>258348</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>300019</v>
+        <v>298775</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>391014</v>
+        <v>391266</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>490144</v>
+        <v>489080</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>573384</v>
+        <v>575382</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>654475</v>
+        <v>650351</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>826791</v>
+        <v>828002</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>291966</v>
+        <v>291888</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>342484</v>
+        <v>341216</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>378414</v>
+        <v>379839</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>467078</v>
+        <v>468631</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>260827</v>
+        <v>263999</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>299366</v>
+        <v>298114</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>345815</v>
+        <v>346242</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>425381</v>
+        <v>426788</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>542393</v>
+        <v>541932</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>629459</v>
+        <v>633159</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>714174</v>
+        <v>709832</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>883125</v>
+        <v>881989</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>167094</v>
+        <v>165659</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>176071</v>
+        <v>176016</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>217191</v>
+        <v>215042</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>278995</v>
+        <v>278867</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>126015</v>
+        <v>124477</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>166146</v>
+        <v>163022</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>182481</v>
+        <v>181543</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>245862</v>
+        <v>245267</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>301557</v>
+        <v>299068</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>351906</v>
+        <v>351954</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>408377</v>
+        <v>407906</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>531207</v>
+        <v>533031</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>196800</v>
+        <v>198920</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>212143</v>
+        <v>210902</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>250516</v>
+        <v>249266</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>309362</v>
+        <v>308561</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>160945</v>
+        <v>160309</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>202067</v>
+        <v>201526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>220190</v>
+        <v>221941</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>274936</v>
+        <v>274938</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>349818</v>
+        <v>346356</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>402837</v>
+        <v>402211</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>461241</v>
+        <v>460467</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>573585</v>
+        <v>576616</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>80644</v>
+        <v>80957</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>91619</v>
+        <v>91729</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>126039</v>
+        <v>125347</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>159564</v>
+        <v>158149</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>82673</v>
+        <v>84380</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>108597</v>
+        <v>107738</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>123923</v>
+        <v>127031</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>167138</v>
+        <v>169510</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>174479</v>
+        <v>173039</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>211188</v>
+        <v>210147</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>263397</v>
+        <v>260473</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>336132</v>
+        <v>334809</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>108272</v>
+        <v>108867</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>125588</v>
+        <v>124705</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>156248</v>
+        <v>155343</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>187501</v>
+        <v>187020</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>120312</v>
+        <v>119888</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>147156</v>
+        <v>146087</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>170003</v>
+        <v>170667</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>198735</v>
+        <v>200468</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>219964</v>
+        <v>215879</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>259727</v>
+        <v>261176</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>314399</v>
+        <v>315002</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>379200</v>
+        <v>376808</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2719617</v>
+        <v>2720746</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2800698</v>
+        <v>2802242</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>2813825</v>
+        <v>2812739</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>2870568</v>
+        <v>2871217</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2357910</v>
+        <v>2359190</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>2546920</v>
+        <v>2547248</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>2638177</v>
+        <v>2640607</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>2786421</v>
+        <v>2784824</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5107309</v>
+        <v>5103811</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>5377551</v>
+        <v>5379017</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>5486542</v>
+        <v>5486692</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>5690224</v>
+        <v>5684913</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2802690</v>
+        <v>2801769</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2892662</v>
+        <v>2897832</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>2897047</v>
+        <v>2898608</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>2958895</v>
+        <v>2965632</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>2467801</v>
+        <v>2459902</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>2657027</v>
+        <v>2655697</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>2749677</v>
+        <v>2747332</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>2870576</v>
+        <v>2871661</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>5238250</v>
+        <v>5241586</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>5525526</v>
+        <v>5522470</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>5619082</v>
+        <v>5621867</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>5815096</v>
+        <v>5808631</v>
       </c>
     </row>
     <row r="36">
